--- a/doc/Pendapatan RI.xlsx
+++ b/doc/Pendapatan RI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e629189636fbfa1/Documents/Bridging BPJS/Contoh Export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistem_internal_bats\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{54383540-A403-4037-BE3C-364F65584A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287EEF4-CB6E-484C-8ABF-18D18A40180D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC12A2C-DE41-439D-AFE0-2FC00BED8899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6973B905-809A-4F2B-8C67-029BB595A49B}"/>
   </bookViews>
@@ -2681,7 +2681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9046EC08-BD67-4F2F-BB28-EFD6F4BBE1D3}">
   <dimension ref="A1:Q1772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1763" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
